--- a/tests/data/lab_app_index.xlsx
+++ b/tests/data/lab_app_index.xlsx
@@ -11,7 +11,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="180">
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>marker</t>
+  </si>
+  <si>
+    <t>lower limit</t>
+  </si>
+  <si>
+    <t>upper limit</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
   <si>
     <t>MBA (Dried Blood Spot)</t>
   </si>
@@ -64,18 +79,12 @@
     <t>Indican (negative)</t>
   </si>
   <si>
-    <t>Non Clue</t>
-  </si>
-  <si>
     <t>Indican (low)</t>
   </si>
   <si>
     <t>May indicate the following: Inadequate dietary protein digestion, intestinal toxemia and/or an overgrowth of anaerobic bacteria, putrefaction of undigested food in the bowels, various stomach disorders, such as insufficient hydrochloric acid (HCL), as well as pancreatic insufficiency, especially in trypsin and chymotrypsin.</t>
   </si>
   <si>
-    <t>positive Indican (high) indicating some level of dysbiosis, could be SIBO or even leaky gut. Points to using MBA and GI Pathogen Screen</t>
-  </si>
-  <si>
     <t>Indican (moderate)</t>
   </si>
   <si>
@@ -85,12 +94,6 @@
     <t>May indicate the following: Inadequate dietary protein digestion, intestinal toxemia and/or an overgrowth of anaerobic bacteria, putrefaction of undigested food in the bowels, various stomach disorders, such as insufficient hydrochloric acid (HCL), as well as pancreatic insufficiency, especially in trypsin and chymotrypsin. May also indicate even greater insufficiency of HCL, as in hypochlorhydria and/or protease enzyme deficiency. It also may indicate hypomotility of the upper bowel, liver dysfunction, as well as increases in some common microorganisms such as Salmonella, Staphylococcus aureus, Candida albicans and other candida species. Inability to digest protein can lead to adverse effects on glycemic control, and hormone imbalance.</t>
   </si>
   <si>
-    <t>positive Indican (high) indicating some level of dysbiosis, could be SIBO or even leaky gut. Points to using MBA and GI Pathogen Screen. Clients present with symptoms of amino acid deficiencies, poor glycemic control &amp; hormone imbalances, etc. Protein putrefaction may occur, leading to hypermo lity, rapid transit time → hydration issues, halitosis, gas, bloating, etc.  Indicates dysbiosis, even leaky gut and SIBO →  Leads to liver congestion, poor detoxification problems, etc.</t>
-  </si>
-  <si>
-    <t>Support digestion, Protein (AA) intake, Mucosal Barrier Repair</t>
-  </si>
-  <si>
     <t>Indican (very high)</t>
   </si>
   <si>
@@ -100,21 +103,12 @@
     <t>May indicate the following: Inadequate dietary protein digestion, intestinal toxemia and/or an overgrowth of anaerobic bacteria, putrefaction of undigested food in the bowels, various stomach disorders, such as insufficient hydrochloric acid (HCL), as well as pancreatic insufficiency, especially in trypsin and chymotrypsin. May also indicate even greater insufficiency of HCL, as in hypochlorhydria and/or protease enzyme deficiency. It also may indicate hypomotility of the upper bowel, liver dysfunction, as well as increases in some common microorganisms such as Salmonella, Staphylococcus aureus, Candida albicans and other candida species. Inability to digest protein can lead to adverse effects on glycemic control, and hormone imbalance.especially in trypsin and chymotrypsin.</t>
   </si>
   <si>
-    <t>positive Indican (high) indicating some level of dysbiosis, could be SIBO or even leaky gut. Points to using MBA and GI Pathogen Screen. Clients present with symptoms of amino acid deficiencies, poor glycemic control &amp; hormone imbalances, etc. Protein putrefaction may occur, leading to hypermo lity, rapid transit time → hydration issues, halitosis, gas, bloating, etc. Indicates dysbiosis, even leaky gut and SIBO → Leads to liver congestion, poor detoxification problems, etc.</t>
-  </si>
-  <si>
     <t>Total Bile Acids (very low)</t>
   </si>
   <si>
     <t>A low level of TBA is suggestive of inflammatory bowel disease (IBD), chronic malabsorption, persistent diarrhea, or starvation.</t>
   </si>
   <si>
-    <t>Client may present with multiple symptoms of Metabolic Chaos. Poor bile flow or GB dysfunction, pain, diarrhea, IBD, starvation, malabsorption form weak enterohepatic circulation. Check antibiotic history, they block enterohepatic circulation by suppressing the intestinal flora and thereby reducing the levels of deconjugating enzymes. Consider biliary stasis. Rule out severe liver disease such as cirrhosis or other disease-causing reduction in ability to make bile acids</t>
-  </si>
-  <si>
-    <t>Heal gut function with full blown mucosal barrier repair protocol. DRESS Program. Ox bile, etc,</t>
-  </si>
-  <si>
     <t>Total Bile Acids (low)</t>
   </si>
   <si>
@@ -127,21 +121,12 @@
     <t>Elevated TBA represents bile acids that were not cleared by the liver and is used as a screening marker of liver parenchymal damage, an indication of liver dysfunction. An increase in TBA may indicate a risk of viral disease, cirrhosis and drug-induced liver injury, as well as cholestasis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Elevated UBA (high) indicating some liver congestion, could have detoxification issues, leaky gut.  Points to using the MBA and GI Pathogen screen </t>
-  </si>
-  <si>
-    <t>Clients who show up with signs the need to “detoxify” may have elevated UBAs and liver congestion. Impairment of liver may vary, from sluggish to severe hepatocellular damage. Elevated UBA → High specificity towards hepatobiliary disease. Possible causes include drug use, toxicity, antigen and immune complex load. Clinical correlation is important.</t>
-  </si>
-  <si>
     <t>BMX Support Liver, Liver/GB Flushing, Colon cleansing</t>
   </si>
   <si>
     <t>Total Bile Acids (high)</t>
   </si>
   <si>
-    <t>Elevated UBA (high) indicating some liver congestion, could have detoxification issues, leaky gut. Points to using the MBA and GI Pathogen screen</t>
-  </si>
-  <si>
     <t>Total Bile Acids (very high)</t>
   </si>
   <si>
@@ -157,12 +142,6 @@
     <t>Slightly elevated 8-OHdG, indicating oxidative stress is low but still present. It is still important to investigate sources of oxidative stress!</t>
   </si>
   <si>
-    <t>signs of intercellular damage from fee radicals, damages DNA. Cell contents subject to mutation, esp. hormones, genes &amp; other regulatory proteins that we rely on. Clients suffer accelerated aging, degenerative disease, CVD, damage to arteries, calcification of vessels and cholesterol build up. Other tissue &amp; organ damage, organism infiltration as immune system is affected. Check client’s exposure to environmental chemicals, heavy metals…etc. 96 © copyright FDN 2008-2021 Also check chronic dysbiosis, over-exercise, E. coli and H. pylori. Rule out cancer, CVD, CFS, ADHD, many unexplained symptoms.</t>
-  </si>
-  <si>
-    <t>Support Anti-oxidant to balance anti oxidative and pro-oxidative elements. Foods rich in anti-oxidants</t>
-  </si>
-  <si>
     <t>8-OHdG (moderate)</t>
   </si>
   <si>
@@ -572,34 +551,13 @@
   </si>
   <si>
     <t>Calprotectin</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>marker</t>
-  </si>
-  <si>
-    <t>lower limit</t>
-  </si>
-  <si>
-    <t>upper limit</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>FDN considerations</t>
-  </si>
-  <si>
-    <t>Recommendations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -612,29 +570,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="&quot;Google Sans&quot;"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
       <color rgb="FF1F1F1F"/>
-      <name val="&quot;Google Sans&quot;"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.0"/>
       <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <name val="&quot;Google Sans&quot;"/>
     </font>
   </fonts>
   <fills count="3">
@@ -664,26 +617,26 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
@@ -913,762 +866,692 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.13"/>
+    <col customWidth="1" min="1" max="1" width="28.38"/>
     <col customWidth="1" min="2" max="2" width="32.0"/>
     <col customWidth="1" min="3" max="3" width="16.38"/>
     <col customWidth="1" min="4" max="4" width="25.5"/>
-    <col customWidth="1" min="5" max="5" width="28.38"/>
-    <col customWidth="1" min="6" max="6" width="20.25"/>
+    <col customWidth="1" min="5" max="5" width="122.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
         <v>0.0</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D2" s="1">
         <v>1.0</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>7.6</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.0</v>
       </c>
       <c r="D3" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>7.5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9.2</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7.6</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>9.1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>13.1</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9.2</v>
       </c>
       <c r="D5" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>10.5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4">
         <v>15.0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>40.0</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4">
         <v>0.3</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>447.0</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.0</v>
+        <v>19</v>
+      </c>
+      <c r="C19" s="4">
+        <v>6.0</v>
       </c>
       <c r="D19" s="1">
-        <v>59.6</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1">
-        <v>59.7</v>
+        <v>21</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.0</v>
       </c>
       <c r="D20" s="1">
-        <v>81.7</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>20</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2">
-        <v>81.8</v>
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>59.7</v>
       </c>
       <c r="D21" s="1">
-        <v>105.6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>20</v>
+        <v>81.7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="2">
-        <v>105.7</v>
+        <v>24</v>
+      </c>
+      <c r="C22" s="4">
+        <v>81.8</v>
       </c>
       <c r="D22" s="1">
-        <v>135.7</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>105.6</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4">
+        <v>105.7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>135.7</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C23" s="2">
-        <v>135.8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="C24" s="4">
+        <v>135.8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8.0</v>
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.0</v>
       </c>
       <c r="D25" s="1">
-        <v>10.9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>7.9</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="2">
-        <v>11.0</v>
+        <v>32</v>
+      </c>
+      <c r="C26" s="4">
+        <v>8.0</v>
       </c>
       <c r="D26" s="1">
-        <v>13.9</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>40</v>
+        <v>10.9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="2">
-        <v>14.0</v>
+        <v>34</v>
+      </c>
+      <c r="C27" s="4">
+        <v>11.0</v>
       </c>
       <c r="D27" s="1">
-        <v>19.3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>40</v>
+        <v>13.9</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2">
-        <v>19.4</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>40</v>
+      <c r="C28" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>8.7</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="C29" s="4">
+        <v>19.4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="2">
-        <v>8.8</v>
+        <v>40</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.0</v>
       </c>
       <c r="D30" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>49</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="2">
-        <v>10.7</v>
+        <v>41</v>
+      </c>
+      <c r="C31" s="4">
+        <v>8.8</v>
       </c>
       <c r="D31" s="1">
-        <v>12.4</v>
+        <v>10.6</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="2">
-        <v>12.5</v>
+        <v>43</v>
+      </c>
+      <c r="C32" s="4">
+        <v>10.7</v>
       </c>
       <c r="D32" s="1">
-        <v>14.7</v>
+        <v>12.4</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="2">
-        <v>14.8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="C33" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>14.7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4.5</v>
+        <v>46</v>
+      </c>
+      <c r="C34" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.8</v>
+        <v>49</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2.7</v>
       </c>
       <c r="D35" s="1">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.6</v>
+        <v>50</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.8</v>
       </c>
       <c r="D36" s="1">
-        <v>1.0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.4</v>
+        <v>51</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.6</v>
       </c>
       <c r="D37" s="1">
-        <v>0.6</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="2">
-        <v>4.2</v>
+        <v>52</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.4</v>
       </c>
       <c r="D38" s="1">
-        <v>7.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1.7</v>
+        <v>53</v>
+      </c>
+      <c r="C39" s="4">
+        <v>4.2</v>
       </c>
       <c r="D39" s="1">
-        <v>3.6</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="2">
-        <v>2.6</v>
+        <v>54</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.7</v>
       </c>
       <c r="D40" s="1">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="2">
-        <v>4.6</v>
+      <c r="C41" s="4">
+        <v>2.6</v>
       </c>
       <c r="D41" s="1">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="2">
-        <v>9.9</v>
+        <v>48</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="4">
+        <v>4.6</v>
       </c>
       <c r="D42" s="1">
-        <v>16.0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="2">
-        <v>4.8</v>
+        <v>48</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="4">
+        <v>9.9</v>
       </c>
       <c r="D43" s="1">
-        <v>8.4</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="2">
-        <v>2.5</v>
+        <v>48</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="4">
+        <v>4.8</v>
       </c>
       <c r="D44" s="1">
-        <v>4.4</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="2">
-        <v>53.1</v>
+        <v>48</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2.5</v>
       </c>
       <c r="D45" s="1">
-        <v>86.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="2">
-        <v>215.9</v>
+        <v>60</v>
+      </c>
+      <c r="C46" s="4">
+        <v>53.1</v>
       </c>
       <c r="D46" s="1">
-        <v>332.6</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="2">
-        <v>31.2</v>
+        <v>61</v>
+      </c>
+      <c r="C47" s="4">
+        <v>215.9</v>
       </c>
       <c r="D47" s="1">
-        <v>56.4</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="2">
-        <v>15.0</v>
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="4">
+        <v>31.2</v>
       </c>
       <c r="D48" s="1">
-        <v>15.0</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="2">
-        <v>27.3</v>
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="4">
+        <v>15.0</v>
       </c>
       <c r="D49" s="1">
-        <v>49.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="2">
-        <v>27.1</v>
+        <v>64</v>
+      </c>
+      <c r="C50" s="4">
+        <v>27.3</v>
       </c>
       <c r="D50" s="1">
         <v>49.0</v>
@@ -1676,13 +1559,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="2">
-        <v>26.8</v>
+        <v>65</v>
+      </c>
+      <c r="C51" s="4">
+        <v>27.1</v>
       </c>
       <c r="D51" s="1">
         <v>49.0</v>
@@ -1690,13 +1573,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="2">
-        <v>26.3</v>
+        <v>66</v>
+      </c>
+      <c r="C52" s="4">
+        <v>26.8</v>
       </c>
       <c r="D52" s="1">
         <v>49.0</v>
@@ -1704,727 +1587,727 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="2">
-        <v>20.9</v>
+        <v>67</v>
+      </c>
+      <c r="C53" s="4">
+        <v>26.3</v>
       </c>
       <c r="D53" s="1">
-        <v>38.8</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0.0</v>
+        <v>68</v>
+      </c>
+      <c r="C54" s="4">
+        <v>20.9</v>
       </c>
       <c r="D54" s="1">
-        <v>5.0</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="2">
-        <v>128.0</v>
+        <v>69</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.0</v>
       </c>
       <c r="D55" s="1">
-        <v>223.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="2">
-        <v>2.7</v>
+        <v>70</v>
+      </c>
+      <c r="C56" s="4">
+        <v>128.0</v>
       </c>
       <c r="D56" s="1">
-        <v>4.5</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0.8</v>
+        <v>49</v>
+      </c>
+      <c r="C57" s="4">
+        <v>2.7</v>
       </c>
       <c r="D57" s="1">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0.6</v>
+        <v>50</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.8</v>
       </c>
       <c r="D58" s="1">
-        <v>1.0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0.4</v>
+        <v>51</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.6</v>
       </c>
       <c r="D59" s="1">
-        <v>0.6</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="2">
-        <v>4.2</v>
+        <v>52</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.4</v>
       </c>
       <c r="D60" s="1">
-        <v>7.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1.8</v>
+        <v>53</v>
+      </c>
+      <c r="C61" s="4">
+        <v>4.2</v>
       </c>
       <c r="D61" s="1">
-        <v>3.7</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="2">
-        <v>2.6</v>
+        <v>54</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1.8</v>
       </c>
       <c r="D62" s="1">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="2">
-        <v>2.9</v>
+        <v>55</v>
+      </c>
+      <c r="C63" s="4">
+        <v>2.6</v>
       </c>
       <c r="D63" s="1">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="2">
-        <v>38.9</v>
+        <v>72</v>
+      </c>
+      <c r="C64" s="4">
+        <v>2.9</v>
       </c>
       <c r="D64" s="1">
-        <v>65.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="2">
-        <v>92.0</v>
-      </c>
-      <c r="D65" s="6">
-        <v>142.5</v>
+        <v>73</v>
+      </c>
+      <c r="C65" s="4">
+        <v>38.9</v>
+      </c>
+      <c r="D65" s="1">
+        <v>65.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="2">
-        <v>66.1</v>
-      </c>
-      <c r="D66" s="6">
-        <v>100.4</v>
+        <v>64</v>
+      </c>
+      <c r="C66" s="4">
+        <v>92.0</v>
+      </c>
+      <c r="D66" s="8">
+        <v>142.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="2">
-        <v>64.0</v>
-      </c>
-      <c r="D67" s="6">
-        <v>97.8</v>
+        <v>65</v>
+      </c>
+      <c r="C67" s="4">
+        <v>66.1</v>
+      </c>
+      <c r="D67" s="8">
+        <v>100.4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="2">
-        <v>61.0</v>
-      </c>
-      <c r="D68" s="1">
-        <v>92.0</v>
+        <v>66</v>
+      </c>
+      <c r="C68" s="4">
+        <v>64.0</v>
+      </c>
+      <c r="D68" s="8">
+        <v>97.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="2">
-        <v>55.1</v>
+        <v>67</v>
+      </c>
+      <c r="C69" s="4">
+        <v>61.0</v>
       </c>
       <c r="D69" s="1">
-        <v>86.9</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="2">
-        <v>0.0</v>
+        <v>68</v>
+      </c>
+      <c r="C70" s="4">
+        <v>55.1</v>
       </c>
       <c r="D70" s="1">
-        <v>5.0</v>
+        <v>86.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="2">
-        <v>128.0</v>
+        <v>69</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0.0</v>
       </c>
       <c r="D71" s="1">
-        <v>223.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
+      </c>
+      <c r="C72" s="4">
+        <v>128.0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>223.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>90</v>
+      <c r="C77" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D79" s="2" t="s">
         <v>84</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C98" s="9">
-        <v>1.6E9</v>
-      </c>
-      <c r="D98" s="10">
-        <v>2.5E11</v>
+        <v>111</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C99" s="9">
-        <v>6.7E7</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>121</v>
+        <v>1.6E9</v>
+      </c>
+      <c r="D99" s="10">
+        <v>2.5E11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C100" s="9">
-        <v>190000.0</v>
-      </c>
-      <c r="D100" s="10">
-        <v>2.0E8</v>
+        <v>6.7E7</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C101" s="9">
-        <v>3700000.0</v>
+        <v>190000.0</v>
       </c>
       <c r="D101" s="10">
-        <v>3.8E9</v>
+        <v>2.0E8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C102" s="9">
-        <v>860000.0</v>
+        <v>3700000.0</v>
       </c>
       <c r="D102" s="10">
-        <v>6.2E8</v>
+        <v>3.8E9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C103" s="9">
-        <v>5000000.0</v>
+        <v>860000.0</v>
       </c>
       <c r="D103" s="10">
-        <v>5.0E7</v>
+        <v>6.2E8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C104" s="9">
-        <v>1000000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D104" s="10">
         <v>5.0E7</v>
@@ -2432,718 +2315,709 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C105" s="9">
-        <v>10.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="D105" s="10">
-        <v>50000.0</v>
+        <v>5.0E7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C106" s="9">
-        <v>1000.0</v>
+        <v>10.0</v>
       </c>
       <c r="D106" s="10">
-        <v>5.0E8</v>
+        <v>50000.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C107" s="9">
-        <v>8.61E11</v>
+        <v>1000.0</v>
       </c>
       <c r="D107" s="10">
-        <v>3.31E12</v>
+        <v>5.0E8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C108" s="9">
-        <v>5.7E10</v>
+        <v>8.61E11</v>
       </c>
       <c r="D108" s="10">
-        <v>3.04E11</v>
+        <v>3.31E12</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D109" s="1">
-        <v>1.0</v>
+        <v>123</v>
+      </c>
+      <c r="C109" s="9">
+        <v>5.7E10</v>
+      </c>
+      <c r="D109" s="10">
+        <v>3.04E11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>84</v>
+        <v>128</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>95</v>
+        <v>129</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>84</v>
+        <v>134</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>146</v>
+        <v>136</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>103</v>
+        <v>140</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>103</v>
+        <v>143</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>84</v>
+        <v>146</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>103</v>
+        <v>149</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>103</v>
+        <v>152</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>84</v>
+        <v>154</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>97</v>
+        <v>155</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>107</v>
+        <v>156</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>97</v>
+        <v>158</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>97</v>
+        <v>161</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>95</v>
+        <v>162</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>90</v>
+        <v>164</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C147" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D147" s="11">
-        <v>0.15</v>
+        <v>171</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C148" s="2">
-        <v>200.0</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
+      </c>
+      <c r="C148" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D148" s="11">
+        <v>0.15</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C149" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D149" s="2">
-        <v>2486.0</v>
+        <v>173</v>
+      </c>
+      <c r="C149" s="4">
+        <v>200.0</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C150" s="2">
+        <v>175</v>
+      </c>
+      <c r="C150" s="4">
         <v>0.0</v>
       </c>
-      <c r="D150" s="1">
-        <v>9.9</v>
+      <c r="D150" s="4">
+        <v>2486.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C151" s="2">
-        <v>510.0</v>
+        <v>176</v>
+      </c>
+      <c r="C151" s="4">
+        <v>0.0</v>
       </c>
       <c r="D151" s="1">
-        <v>2010.0</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C152" s="2">
-        <v>0.0</v>
+        <v>177</v>
+      </c>
+      <c r="C152" s="4">
+        <v>510.0</v>
       </c>
       <c r="D152" s="1">
-        <v>157.0</v>
+        <v>2010.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C153" s="2">
+        <v>178</v>
+      </c>
+      <c r="C153" s="4">
         <v>0.0</v>
       </c>
       <c r="D153" s="1">
+        <v>157.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C154" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D154" s="1">
         <v>172.0</v>
       </c>
     </row>
-    <row r="154">
-      <c r="C154" s="12"/>
-    </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="C155" s="12"/>
     </row>
     <row r="156">
-      <c r="C156" s="12"/>
+      <c r="C156" s="4"/>
     </row>
     <row r="157">
       <c r="C157" s="12"/>
@@ -5733,6 +5607,9 @@
     </row>
     <row r="1019">
       <c r="C1019" s="12"/>
+    </row>
+    <row r="1020">
+      <c r="C1020" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
